--- a/biology/Origine et évolution du vivant/Reconstitution_de_taxon/Reconstitution_de_taxon.xlsx
+++ b/biology/Origine et évolution du vivant/Reconstitution_de_taxon/Reconstitution_de_taxon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La reconstitution de taxon est l'élevage sélectif d'animaux domestiques dans la recherche de la ressemblance avec un taxon sauvage (espèce, race, etc.), typiquement éteint. Cela peut être dans le but d’introduire le taxon ainsi créé dans le milieu naturel pour occuper la niche écologique du taxon disparu.
 </t>
@@ -511,7 +523,9 @@
           <t>Projets</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>l'aurochs de Heck (sélection poursuivie avec les Taurus), le programme Tauros, le projet Uruz ou encore le projet Auerrind, tentatives de reconstitution de l'aurochs par sélection de bovins ;
 le konik et le cheval de Heck, tentatives de reconstitution du tarpan ;
